--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/App-Tnfrsf21.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H2">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J2">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N2">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O2">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P2">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q2">
-        <v>1064.419017307793</v>
+        <v>1208.1708660978</v>
       </c>
       <c r="R2">
-        <v>9579.771155770133</v>
+        <v>10873.5377948802</v>
       </c>
       <c r="S2">
-        <v>0.02257580473940105</v>
+        <v>0.01848708823712227</v>
       </c>
       <c r="T2">
-        <v>0.02257580473940105</v>
+        <v>0.01848708823712227</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H3">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J3">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,25 +626,25 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N3">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O3">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P3">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q3">
-        <v>253.9458827111971</v>
+        <v>262.47122173745</v>
       </c>
       <c r="R3">
-        <v>2285.512944400773</v>
+        <v>2362.24099563705</v>
       </c>
       <c r="S3">
-        <v>0.00538606748774861</v>
+        <v>0.004016260259310649</v>
       </c>
       <c r="T3">
-        <v>0.005386067487748609</v>
+        <v>0.004016260259310648</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H4">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J4">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N4">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O4">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P4">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q4">
-        <v>2715.170855161072</v>
+        <v>2895.42030286245</v>
       </c>
       <c r="R4">
-        <v>24436.53769644965</v>
+        <v>26058.78272576205</v>
       </c>
       <c r="S4">
-        <v>0.05758744071978936</v>
+        <v>0.04430490100747089</v>
       </c>
       <c r="T4">
-        <v>0.05758744071978935</v>
+        <v>0.04430490100747088</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H5">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J5">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N5">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O5">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P5">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q5">
-        <v>1127.031876380816</v>
+        <v>1031.0047643511</v>
       </c>
       <c r="R5">
-        <v>10143.28688742734</v>
+        <v>9279.042879159899</v>
       </c>
       <c r="S5">
-        <v>0.02390379273813432</v>
+        <v>0.01577614275124337</v>
       </c>
       <c r="T5">
-        <v>0.02390379273813432</v>
+        <v>0.01577614275124337</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H6">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J6">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N6">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O6">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P6">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q6">
-        <v>2043.461435768532</v>
+        <v>2077.25641309835</v>
       </c>
       <c r="R6">
-        <v>18391.15292191679</v>
+        <v>18695.30771788515</v>
       </c>
       <c r="S6">
-        <v>0.04334081373620039</v>
+        <v>0.03178558900705082</v>
       </c>
       <c r="T6">
-        <v>0.04334081373620039</v>
+        <v>0.03178558900705081</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.32301533333333</v>
+        <v>98.52314999999999</v>
       </c>
       <c r="H7">
-        <v>285.969046</v>
+        <v>295.56945</v>
       </c>
       <c r="I7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="J7">
-        <v>0.2086259240761469</v>
+        <v>0.1543096363744211</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N7">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O7">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P7">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q7">
-        <v>2632.404391119876</v>
+        <v>2610.14212133675</v>
       </c>
       <c r="R7">
-        <v>23691.63952007888</v>
+        <v>23491.27909203075</v>
       </c>
       <c r="S7">
-        <v>0.0558320046548732</v>
+        <v>0.03993965511222308</v>
       </c>
       <c r="T7">
-        <v>0.05583200465487319</v>
+        <v>0.03993965511222308</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>263.560998</v>
       </c>
       <c r="I8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J8">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N8">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O8">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P8">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q8">
-        <v>981.0129537300381</v>
+        <v>1077.332989668792</v>
       </c>
       <c r="R8">
-        <v>8829.116583570341</v>
+        <v>9695.996907019131</v>
       </c>
       <c r="S8">
-        <v>0.02080680308235064</v>
+        <v>0.01648504412715864</v>
       </c>
       <c r="T8">
-        <v>0.02080680308235064</v>
+        <v>0.01648504412715863</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>263.560998</v>
       </c>
       <c r="I9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J9">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,13 +998,13 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N9">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O9">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P9">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q9">
         <v>234.0471153138514</v>
@@ -1013,10 +1013,10 @@
         <v>2106.424037824662</v>
       </c>
       <c r="S9">
-        <v>0.004964024401320613</v>
+        <v>0.003581322637274096</v>
       </c>
       <c r="T9">
-        <v>0.004964024401320612</v>
+        <v>0.003581322637274095</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>263.560998</v>
       </c>
       <c r="I10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J10">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N10">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O10">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P10">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q10">
-        <v>2502.414685562737</v>
+        <v>2581.863127775518</v>
       </c>
       <c r="R10">
-        <v>22521.73217006463</v>
+        <v>23236.76814997967</v>
       </c>
       <c r="S10">
-        <v>0.05307498682348132</v>
+        <v>0.03950693796608627</v>
       </c>
       <c r="T10">
-        <v>0.05307498682348132</v>
+        <v>0.03950693796608626</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>263.560998</v>
       </c>
       <c r="I11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J11">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N11">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O11">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P11">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q11">
-        <v>1038.719575673028</v>
+        <v>919.3529461016042</v>
       </c>
       <c r="R11">
-        <v>9348.476181057247</v>
+        <v>8274.176514914438</v>
       </c>
       <c r="S11">
-        <v>0.02203073220046283</v>
+        <v>0.01406767826684446</v>
       </c>
       <c r="T11">
-        <v>0.02203073220046282</v>
+        <v>0.01406767826684446</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>263.560998</v>
       </c>
       <c r="I12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J12">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N12">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O12">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P12">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q12">
-        <v>1883.339273669736</v>
+        <v>1852.301627715928</v>
       </c>
       <c r="R12">
-        <v>16950.05346302762</v>
+        <v>16670.71464944335</v>
       </c>
       <c r="S12">
-        <v>0.03994470129625528</v>
+        <v>0.02834339462592005</v>
       </c>
       <c r="T12">
-        <v>0.03994470129625528</v>
+        <v>0.02834339462592005</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>263.560998</v>
       </c>
       <c r="I13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="J13">
-        <v>0.1922783515464171</v>
+        <v>0.1375988004303541</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N13">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O13">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P13">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q13">
-        <v>2426.133660854808</v>
+        <v>2327.478913742104</v>
       </c>
       <c r="R13">
-        <v>21835.20294769327</v>
+        <v>20947.31022367893</v>
       </c>
       <c r="S13">
-        <v>0.05145710374254642</v>
+        <v>0.03561442280707063</v>
       </c>
       <c r="T13">
-        <v>0.05145710374254642</v>
+        <v>0.03561442280707063</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H14">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I14">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J14">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N14">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O14">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P14">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q14">
-        <v>993.8743957787798</v>
+        <v>1680.862982735756</v>
       </c>
       <c r="R14">
-        <v>8944.869562009018</v>
+        <v>15127.7668446218</v>
       </c>
       <c r="S14">
-        <v>0.02107958795338189</v>
+        <v>0.02572008906050961</v>
       </c>
       <c r="T14">
-        <v>0.02107958795338189</v>
+        <v>0.02572008906050961</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H15">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I15">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J15">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,25 +1370,25 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N15">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O15">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P15">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q15">
-        <v>237.1155594142466</v>
+        <v>365.1620586389768</v>
       </c>
       <c r="R15">
-        <v>2134.040034728219</v>
+        <v>3286.458527750791</v>
       </c>
       <c r="S15">
-        <v>0.005029104594118652</v>
+        <v>0.005587606346370474</v>
       </c>
       <c r="T15">
-        <v>0.005029104594118651</v>
+        <v>0.005587606346370472</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H16">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I16">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J16">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N16">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O16">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P16">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q16">
-        <v>2535.22226607216</v>
+        <v>4028.242149442032</v>
       </c>
       <c r="R16">
-        <v>22817.00039464944</v>
+        <v>36254.17934497829</v>
       </c>
       <c r="S16">
-        <v>0.05377081949793526</v>
+        <v>0.06163901989936051</v>
       </c>
       <c r="T16">
-        <v>0.05377081949793525</v>
+        <v>0.0616390198993605</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H17">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I17">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J17">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N17">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O17">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P17">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q17">
-        <v>1052.337572842806</v>
+        <v>1434.381337980122</v>
       </c>
       <c r="R17">
-        <v>9471.038155585258</v>
+        <v>12909.4320418211</v>
       </c>
       <c r="S17">
-        <v>0.02231956323415127</v>
+        <v>0.02194849677725423</v>
       </c>
       <c r="T17">
-        <v>0.02231956323415126</v>
+        <v>0.02194849677725423</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H18">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I18">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J18">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N18">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O18">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P18">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q18">
-        <v>1908.030546944286</v>
+        <v>2889.974844125095</v>
       </c>
       <c r="R18">
-        <v>17172.27492249858</v>
+        <v>26009.77359712586</v>
       </c>
       <c r="S18">
-        <v>0.04046839107927262</v>
+        <v>0.04422157614093587</v>
       </c>
       <c r="T18">
-        <v>0.04046839107927262</v>
+        <v>0.04422157614093587</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>89.00545999999999</v>
+        <v>137.0699463333333</v>
       </c>
       <c r="H19">
-        <v>267.01638</v>
+        <v>411.209839</v>
       </c>
       <c r="I19">
-        <v>0.1947991917312883</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="J19">
-        <v>0.1947991917312882</v>
+        <v>0.2146826768790693</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N19">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O19">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P19">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q19">
-        <v>2457.941168964606</v>
+        <v>3631.349997376262</v>
       </c>
       <c r="R19">
-        <v>22121.47052068146</v>
+        <v>32682.14997638636</v>
       </c>
       <c r="S19">
-        <v>0.05213172537242856</v>
+        <v>0.05556588865463864</v>
       </c>
       <c r="T19">
-        <v>0.05213172537242855</v>
+        <v>0.05556588865463864</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H20">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I20">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J20">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N20">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O20">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P20">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q20">
-        <v>492.1568771404191</v>
+        <v>225.166365320284</v>
       </c>
       <c r="R20">
-        <v>4429.411894263771</v>
+        <v>2026.497287882556</v>
       </c>
       <c r="S20">
-        <v>0.01043840572068869</v>
+        <v>0.003445431917385132</v>
       </c>
       <c r="T20">
-        <v>0.01043840572068869</v>
+        <v>0.003445431917385132</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H21">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I21">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J21">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1742,25 +1742,25 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N21">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O21">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P21">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q21">
-        <v>117.4173051829923</v>
+        <v>48.91666622509989</v>
       </c>
       <c r="R21">
-        <v>1056.755746646931</v>
+        <v>440.249996025899</v>
       </c>
       <c r="S21">
-        <v>0.002490363392362599</v>
+        <v>0.0007485089652013478</v>
       </c>
       <c r="T21">
-        <v>0.002490363392362599</v>
+        <v>0.0007485089652013476</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H22">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I22">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J22">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N22">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O22">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P22">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q22">
-        <v>1255.417262610168</v>
+        <v>539.6184297803777</v>
       </c>
       <c r="R22">
-        <v>11298.75536349151</v>
+        <v>4856.565868023399</v>
       </c>
       <c r="S22">
-        <v>0.02662678374428649</v>
+        <v>0.008257088302375657</v>
       </c>
       <c r="T22">
-        <v>0.02662678374428649</v>
+        <v>0.008257088302375655</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H23">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I23">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J23">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N23">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O23">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P23">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q23">
-        <v>521.1072704433803</v>
+        <v>192.147983311858</v>
       </c>
       <c r="R23">
-        <v>4689.965433990423</v>
+        <v>1729.331849806722</v>
       </c>
       <c r="S23">
-        <v>0.01105242934832886</v>
+        <v>0.002940193992216218</v>
       </c>
       <c r="T23">
-        <v>0.01105242934832886</v>
+        <v>0.002940193992216218</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H24">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I24">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J24">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N24">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O24">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P24">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q24">
-        <v>944.8380594781344</v>
+        <v>387.1375229286019</v>
       </c>
       <c r="R24">
-        <v>8503.54253530321</v>
+        <v>3484.237706357418</v>
       </c>
       <c r="S24">
-        <v>0.02003955133673165</v>
+        <v>0.005923868673806156</v>
       </c>
       <c r="T24">
-        <v>0.02003955133673165</v>
+        <v>0.005923868673806156</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>44.07463300000001</v>
+        <v>18.36172366666667</v>
       </c>
       <c r="H25">
-        <v>132.223899</v>
+        <v>55.085171</v>
       </c>
       <c r="I25">
-        <v>0.09646265391194167</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="J25">
-        <v>0.09646265391194166</v>
+        <v>0.02875863086199473</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N25">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O25">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P25">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q25">
-        <v>1217.14841940827</v>
+        <v>486.4512387465539</v>
       </c>
       <c r="R25">
-        <v>10954.33577467444</v>
+        <v>4378.061148718985</v>
       </c>
       <c r="S25">
-        <v>0.02581512036954337</v>
+        <v>0.007443539011010215</v>
       </c>
       <c r="T25">
-        <v>0.02581512036954337</v>
+        <v>0.007443539011010215</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H26">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J26">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N26">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O26">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P26">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q26">
-        <v>810.0551171141335</v>
+        <v>1111.124950330136</v>
       </c>
       <c r="R26">
-        <v>7290.496054027201</v>
+        <v>10000.12455297123</v>
       </c>
       <c r="S26">
-        <v>0.01718087130609128</v>
+        <v>0.01700211913366774</v>
       </c>
       <c r="T26">
-        <v>0.01718087130609128</v>
+        <v>0.01700211913366773</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H27">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J27">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2114,25 +2114,25 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N27">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O27">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P27">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q27">
-        <v>193.2605096445647</v>
+        <v>241.3883097165385</v>
       </c>
       <c r="R27">
-        <v>1739.344586801083</v>
+        <v>2172.494787448846</v>
       </c>
       <c r="S27">
-        <v>0.004098960520837067</v>
+        <v>0.003693655513770852</v>
       </c>
       <c r="T27">
-        <v>0.004098960520837066</v>
+        <v>0.003693655513770851</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H28">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J28">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N28">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O28">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P28">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q28">
-        <v>2066.327272717624</v>
+        <v>2662.846647340427</v>
       </c>
       <c r="R28">
-        <v>18596.94545445862</v>
+        <v>23965.61982606385</v>
       </c>
       <c r="S28">
-        <v>0.04382578691102335</v>
+        <v>0.04074612483440129</v>
       </c>
       <c r="T28">
-        <v>0.04382578691102334</v>
+        <v>0.04074612483440129</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H29">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J29">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N29">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O29">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P29">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q29">
-        <v>857.7053996293154</v>
+        <v>948.189655722932</v>
       </c>
       <c r="R29">
-        <v>7719.348596663838</v>
+        <v>8533.70690150639</v>
       </c>
       <c r="S29">
-        <v>0.01819151040248857</v>
+        <v>0.01450892942609448</v>
       </c>
       <c r="T29">
-        <v>0.01819151040248857</v>
+        <v>0.01450892942609448</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H30">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J30">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N30">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O30">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P30">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q30">
-        <v>1555.136056152437</v>
+        <v>1910.401495015047</v>
       </c>
       <c r="R30">
-        <v>13996.22450537193</v>
+        <v>17193.61345513542</v>
       </c>
       <c r="S30">
-        <v>0.03298367219678069</v>
+        <v>0.02923242233173874</v>
       </c>
       <c r="T30">
-        <v>0.03298367219678068</v>
+        <v>0.02923242233173874</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>72.54370233333333</v>
+        <v>90.60931133333334</v>
       </c>
       <c r="H31">
-        <v>217.631107</v>
+        <v>271.827934</v>
       </c>
       <c r="I31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="J31">
-        <v>0.1587706482245977</v>
+        <v>0.1419147670774166</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N31">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O31">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P31">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q31">
-        <v>2003.339486299085</v>
+        <v>2400.483339158855</v>
       </c>
       <c r="R31">
-        <v>18030.05537669177</v>
+        <v>21604.35005242969</v>
       </c>
       <c r="S31">
-        <v>0.04248984688737678</v>
+        <v>0.03673151583774351</v>
       </c>
       <c r="T31">
-        <v>0.04248984688737677</v>
+        <v>0.03673151583774351</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H32">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J32">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>11.166443</v>
+        <v>12.262812</v>
       </c>
       <c r="N32">
-        <v>33.499329</v>
+        <v>36.788436</v>
       </c>
       <c r="O32">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="P32">
-        <v>0.108211886127637</v>
+        <v>0.1198051441989319</v>
       </c>
       <c r="Q32">
-        <v>760.5274274440141</v>
+        <v>2526.864968863744</v>
       </c>
       <c r="R32">
-        <v>6844.746846996126</v>
+        <v>22741.7847197737</v>
       </c>
       <c r="S32">
-        <v>0.01613041332572344</v>
+        <v>0.03866537172308853</v>
       </c>
       <c r="T32">
-        <v>0.01613041332572343</v>
+        <v>0.03866537172308853</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H33">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J33">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2486,25 +2486,25 @@
         <v>2.664056333333333</v>
       </c>
       <c r="N33">
-        <v>7.992168999999999</v>
+        <v>7.992169</v>
       </c>
       <c r="O33">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="P33">
-        <v>0.02581686581665055</v>
+        <v>0.02602728095065616</v>
       </c>
       <c r="Q33">
-        <v>181.444342639454</v>
+        <v>548.9532599683982</v>
       </c>
       <c r="R33">
-        <v>1632.999083755086</v>
+        <v>4940.579339715584</v>
       </c>
       <c r="S33">
-        <v>0.003848345420263007</v>
+        <v>0.008399927228728742</v>
       </c>
       <c r="T33">
-        <v>0.003848345420263007</v>
+        <v>0.008399927228728741</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H34">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J34">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>28.483896</v>
+        <v>29.388223</v>
       </c>
       <c r="N34">
-        <v>85.451688</v>
+        <v>88.164669</v>
       </c>
       <c r="O34">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="P34">
-        <v>0.2760320462320414</v>
+        <v>0.2871168777818144</v>
       </c>
       <c r="Q34">
-        <v>1939.989676969008</v>
+        <v>6055.713093852843</v>
       </c>
       <c r="R34">
-        <v>17459.90709272107</v>
+        <v>54501.41784467559</v>
       </c>
       <c r="S34">
-        <v>0.04114622853552564</v>
+        <v>0.0926628057721198</v>
       </c>
       <c r="T34">
-        <v>0.04114622853552564</v>
+        <v>0.09266280577211979</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H35">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J35">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>11.82329233333333</v>
+        <v>10.464594</v>
       </c>
       <c r="N35">
-        <v>35.469877</v>
+        <v>31.393782</v>
       </c>
       <c r="O35">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="P35">
-        <v>0.1145772887237619</v>
+        <v>0.1022369251973591</v>
       </c>
       <c r="Q35">
-        <v>805.2643175797821</v>
+        <v>2156.325644720128</v>
       </c>
       <c r="R35">
-        <v>7247.378858218039</v>
+        <v>19406.93080248115</v>
       </c>
       <c r="S35">
-        <v>0.01707926080019607</v>
+        <v>0.03299548398370634</v>
       </c>
       <c r="T35">
-        <v>0.01707926080019606</v>
+        <v>0.03299548398370634</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H36">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J36">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>21.43723033333333</v>
+        <v>21.08394233333334</v>
       </c>
       <c r="N36">
-        <v>64.311691</v>
+        <v>63.25182700000001</v>
       </c>
       <c r="O36">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="P36">
-        <v>0.2077441426712689</v>
+        <v>0.2059857683153721</v>
       </c>
       <c r="Q36">
-        <v>1460.053271837306</v>
+        <v>4344.539840262031</v>
       </c>
       <c r="R36">
-        <v>13140.47944653576</v>
+        <v>39100.85856235828</v>
       </c>
       <c r="S36">
-        <v>0.03096701302602832</v>
+        <v>0.06647891753592046</v>
       </c>
       <c r="T36">
-        <v>0.03096701302602831</v>
+        <v>0.06647891753592046</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>68.108298</v>
+        <v>206.0591786666667</v>
       </c>
       <c r="H37">
-        <v>204.324894</v>
+        <v>618.177536</v>
       </c>
       <c r="I37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="J37">
-        <v>0.1490632305096083</v>
+        <v>0.322735488376744</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.61562233333333</v>
+        <v>26.49267833333333</v>
       </c>
       <c r="N37">
-        <v>82.846867</v>
+        <v>79.47803500000001</v>
       </c>
       <c r="O37">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="P37">
-        <v>0.2676177704286402</v>
+        <v>0.2588280035558662</v>
       </c>
       <c r="Q37">
-        <v>1880.853035334122</v>
+        <v>5459.059538046862</v>
       </c>
       <c r="R37">
-        <v>16927.6773180071</v>
+        <v>49131.53584242176</v>
       </c>
       <c r="S37">
-        <v>0.03989196940187182</v>
+        <v>0.08353298213318011</v>
       </c>
       <c r="T37">
-        <v>0.03989196940187181</v>
+        <v>0.08353298213318011</v>
       </c>
     </row>
   </sheetData>
